--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
@@ -496,28 +496,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.56119698749581</v>
+        <v>1.01146835173546</v>
       </c>
       <c r="B2" t="n">
-        <v>8.45237336359877</v>
+        <v>4.1053104066325</v>
       </c>
       <c r="C2" t="n">
-        <v>43.8348625637231</v>
+        <v>24.2948981866069</v>
       </c>
       <c r="D2" t="n">
-        <v>66.973124602879</v>
+        <v>39.309116260625</v>
       </c>
       <c r="E2" t="n">
-        <v>29.5087629792582</v>
+        <v>17.7675346980434</v>
       </c>
       <c r="F2" t="n">
-        <v>22.0801616105854</v>
+        <v>13.467053080094</v>
       </c>
       <c r="G2" t="n">
-        <v>18.8892975841288</v>
+        <v>11.6046356217554</v>
       </c>
       <c r="H2" t="n">
-        <v>17.1097788202549</v>
+        <v>10.5581437338595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.10729939297356</v>
+        <v>1.73193926771254</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1405775634261</v>
+        <v>6.28448259186245</v>
       </c>
       <c r="C3" t="n">
-        <v>52.3236538032921</v>
+        <v>35.0260073877296</v>
       </c>
       <c r="D3" t="n">
-        <v>79.5202809483599</v>
+        <v>55.097828779981</v>
       </c>
       <c r="E3" t="n">
-        <v>34.8884063367844</v>
+        <v>24.5398720874679</v>
       </c>
       <c r="F3" t="n">
-        <v>26.0284514511277</v>
+        <v>18.4435242744497</v>
       </c>
       <c r="G3" t="n">
-        <v>22.2215401961149</v>
+        <v>15.8095156794556</v>
       </c>
       <c r="H3" t="n">
-        <v>20.0986898876087</v>
+        <v>14.3334757804268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.63227858414961</v>
+        <v>2.71110376285464</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6014937802409</v>
+        <v>9.00859589373721</v>
       </c>
       <c r="C4" t="n">
-        <v>59.7220609366556</v>
+        <v>48.1711507448954</v>
       </c>
       <c r="D4" t="n">
-        <v>90.5195894754363</v>
+        <v>74.2942606619105</v>
       </c>
       <c r="E4" t="n">
-        <v>39.6071862202322</v>
+        <v>32.7479412265719</v>
       </c>
       <c r="F4" t="n">
-        <v>29.4905199247797</v>
+        <v>24.4680670675755</v>
       </c>
       <c r="G4" t="n">
-        <v>25.1425911559054</v>
+        <v>20.8986835985556</v>
       </c>
       <c r="H4" t="n">
-        <v>22.7185777399927</v>
+        <v>18.9035681107857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.80025665676745</v>
+        <v>0.56669239860511</v>
       </c>
       <c r="B5" t="n">
-        <v>8.76032995740167</v>
+        <v>2.29328112948614</v>
       </c>
       <c r="C5" t="n">
-        <v>46.0755380188414</v>
+        <v>17.3707346666428</v>
       </c>
       <c r="D5" t="n">
-        <v>70.7493176108519</v>
+        <v>30.50269234083</v>
       </c>
       <c r="E5" t="n">
-        <v>31.1799937900634</v>
+        <v>14.1745318232655</v>
       </c>
       <c r="F5" t="n">
-        <v>23.3104234662605</v>
+        <v>10.8611146075025</v>
       </c>
       <c r="G5" t="n">
-        <v>19.9227892846858</v>
+        <v>9.40414124317986</v>
       </c>
       <c r="H5" t="n">
-        <v>18.031410785335</v>
+        <v>8.5761712978377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.89508595312072</v>
+        <v>1.21070990378141</v>
       </c>
       <c r="B6" t="n">
-        <v>8.86868695456381</v>
+        <v>4.01514219880668</v>
       </c>
       <c r="C6" t="n">
-        <v>46.4600058554044</v>
+        <v>24.9406115363474</v>
       </c>
       <c r="D6" t="n">
-        <v>71.0683844325629</v>
+        <v>40.9556832580685</v>
       </c>
       <c r="E6" t="n">
-        <v>31.2300949456948</v>
+        <v>18.5184224139535</v>
       </c>
       <c r="F6" t="n">
-        <v>23.3073075551228</v>
+        <v>14.0044178892703</v>
       </c>
       <c r="G6" t="n">
-        <v>19.8997666195765</v>
+        <v>12.0404378897509</v>
       </c>
       <c r="H6" t="n">
-        <v>17.9990557296509</v>
+        <v>10.93454877215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.65459735480564</v>
+        <v>2.44302786170129</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7941374232537</v>
+        <v>7.31518882692656</v>
       </c>
       <c r="C7" t="n">
-        <v>56.7234590154458</v>
+        <v>41.3712806439469</v>
       </c>
       <c r="D7" t="n">
-        <v>86.9200325887093</v>
+        <v>65.4999468390894</v>
       </c>
       <c r="E7" t="n">
-        <v>38.204712849237</v>
+        <v>29.1712571168182</v>
       </c>
       <c r="F7" t="n">
-        <v>28.5119697498824</v>
+        <v>21.9027486350815</v>
       </c>
       <c r="G7" t="n">
-        <v>24.3418553089525</v>
+        <v>18.7586422175284</v>
       </c>
       <c r="H7" t="n">
-        <v>22.0148776603</v>
+        <v>16.9964128235645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.07458258600491</v>
+        <v>-3.11877035519044</v>
       </c>
       <c r="B8" t="n">
-        <v>7.97178128236384</v>
+        <v>-6.73759767787664</v>
       </c>
       <c r="C8" t="n">
-        <v>39.8646387893653</v>
+        <v>-25.9964382653503</v>
       </c>
       <c r="D8" t="n">
-        <v>60.0969370716861</v>
+        <v>-32.6622362470406</v>
       </c>
       <c r="E8" t="n">
-        <v>26.4637606510239</v>
+        <v>-12.852268507562</v>
       </c>
       <c r="F8" t="n">
-        <v>19.8495891673942</v>
+        <v>-8.98969665970804</v>
       </c>
       <c r="G8" t="n">
-        <v>17.0256234787407</v>
+        <v>-7.36990056727932</v>
       </c>
       <c r="H8" t="n">
-        <v>15.4556310120665</v>
+        <v>-6.48897089842624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.54986461944705</v>
+        <v>-2.16019326185478</v>
       </c>
       <c r="B9" t="n">
-        <v>9.94972208930951</v>
+        <v>-3.18615366462526</v>
       </c>
       <c r="C9" t="n">
-        <v>49.40556216736</v>
+        <v>-9.72233555265408</v>
       </c>
       <c r="D9" t="n">
-        <v>73.8128228046318</v>
+        <v>-9.62148684984429</v>
       </c>
       <c r="E9" t="n">
-        <v>32.2474682594938</v>
+        <v>-3.11906150433754</v>
       </c>
       <c r="F9" t="n">
-        <v>24.036410705893</v>
+        <v>-1.89959229728743</v>
       </c>
       <c r="G9" t="n">
-        <v>20.5174746029746</v>
+        <v>-1.41747860651446</v>
       </c>
       <c r="H9" t="n">
-        <v>18.5567244096685</v>
+        <v>-1.17169723562265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.47935343358477</v>
+        <v>-0.191030973076905</v>
       </c>
       <c r="B10" t="n">
-        <v>9.86495175640475</v>
+        <v>2.53091472292308</v>
       </c>
       <c r="C10" t="n">
-        <v>48.2535240523694</v>
+        <v>15.1396577438151</v>
       </c>
       <c r="D10" t="n">
-        <v>71.0663017041112</v>
+        <v>24.3066987151029</v>
       </c>
       <c r="E10" t="n">
-        <v>30.7176575730506</v>
+        <v>10.9056208120062</v>
       </c>
       <c r="F10" t="n">
-        <v>22.7277114972094</v>
+        <v>8.20398233301921</v>
       </c>
       <c r="G10" t="n">
-        <v>19.3032808339467</v>
+        <v>7.02223262231169</v>
       </c>
       <c r="H10" t="n">
-        <v>17.3986445017123</v>
+        <v>6.35357608830391</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.30555234588476</v>
+        <v>3.67495032175672</v>
       </c>
       <c r="B2" t="n">
-        <v>30.7098607275943</v>
+        <v>14.9157527013867</v>
       </c>
       <c r="C2" t="n">
-        <v>159.264441646957</v>
+        <v>88.2702298640671</v>
       </c>
       <c r="D2" t="n">
-        <v>243.332285568906</v>
+        <v>142.821126535592</v>
       </c>
       <c r="E2" t="n">
-        <v>107.213673882335</v>
+        <v>64.5544739421326</v>
       </c>
       <c r="F2" t="n">
-        <v>80.2234660887183</v>
+        <v>48.9296090825689</v>
       </c>
       <c r="G2" t="n">
-        <v>68.6301554719413</v>
+        <v>42.1629202128447</v>
       </c>
       <c r="H2" t="n">
-        <v>62.1646609830135</v>
+        <v>38.3607194879873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.7360504936682</v>
+        <v>5.98403471264306</v>
       </c>
       <c r="B3" t="n">
-        <v>35.0367759869179</v>
+        <v>21.7135569830776</v>
       </c>
       <c r="C3" t="n">
-        <v>180.783799113669</v>
+        <v>121.018587638059</v>
       </c>
       <c r="D3" t="n">
-        <v>274.75104377222</v>
+        <v>190.368869253788</v>
       </c>
       <c r="E3" t="n">
-        <v>120.543161345289</v>
+        <v>84.7878728502861</v>
       </c>
       <c r="F3" t="n">
-        <v>89.9310731637875</v>
+        <v>63.7243415743721</v>
       </c>
       <c r="G3" t="n">
-        <v>76.7777891412848</v>
+        <v>54.6235612181057</v>
       </c>
       <c r="H3" t="n">
-        <v>69.4431151300974</v>
+        <v>49.5236860910176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.30461797085701</v>
+        <v>4.70571656555719</v>
       </c>
       <c r="B4" t="n">
-        <v>20.1369428256057</v>
+        <v>15.6363985437921</v>
       </c>
       <c r="C4" t="n">
-        <v>103.660765526334</v>
+        <v>83.6116216383859</v>
       </c>
       <c r="D4" t="n">
-        <v>157.116646562242</v>
+        <v>128.954021573287</v>
       </c>
       <c r="E4" t="n">
-        <v>68.7469785794576</v>
+        <v>56.8412510170807</v>
       </c>
       <c r="F4" t="n">
-        <v>51.1872802650714</v>
+        <v>42.4697092396856</v>
       </c>
       <c r="G4" t="n">
-        <v>43.6404940764044</v>
+        <v>36.2742595674432</v>
       </c>
       <c r="H4" t="n">
-        <v>39.433085919373</v>
+        <v>32.8112980498387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.37089809295231</v>
+        <v>1.28928879173938</v>
       </c>
       <c r="B5" t="n">
-        <v>19.9307335934237</v>
+        <v>5.21747188392099</v>
       </c>
       <c r="C5" t="n">
-        <v>104.827018832926</v>
+        <v>39.5203704251335</v>
       </c>
       <c r="D5" t="n">
-        <v>160.962635891016</v>
+        <v>69.3970475865003</v>
       </c>
       <c r="E5" t="n">
-        <v>70.93798437915</v>
+        <v>32.2486503310662</v>
       </c>
       <c r="F5" t="n">
-        <v>53.0338288985783</v>
+        <v>24.71025438795</v>
       </c>
       <c r="G5" t="n">
-        <v>45.3265810308318</v>
+        <v>21.3954765064966</v>
       </c>
       <c r="H5" t="n">
-        <v>41.0234827253802</v>
+        <v>19.5117519796558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.67850733281505</v>
+        <v>1.53833265439701</v>
       </c>
       <c r="B6" t="n">
-        <v>11.2685877114073</v>
+        <v>5.10165510101165</v>
       </c>
       <c r="C6" t="n">
-        <v>59.0322619048709</v>
+        <v>31.6896368214736</v>
       </c>
       <c r="D6" t="n">
-        <v>90.2997622522057</v>
+        <v>52.0384484691579</v>
       </c>
       <c r="E6" t="n">
-        <v>39.6810786009358</v>
+        <v>23.5295786532573</v>
       </c>
       <c r="F6" t="n">
-        <v>29.6143545089833</v>
+        <v>17.7940671647267</v>
       </c>
       <c r="G6" t="n">
-        <v>25.2847199070251</v>
+        <v>15.2986266331782</v>
       </c>
       <c r="H6" t="n">
-        <v>22.8696693491597</v>
+        <v>13.8934796723462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.31411594124799</v>
+        <v>3.55238403697424</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6956545917449</v>
+        <v>10.6369478726001</v>
       </c>
       <c r="C7" t="n">
-        <v>82.4810529128014</v>
+        <v>60.157593473532</v>
       </c>
       <c r="D7" t="n">
-        <v>126.38960901837</v>
+        <v>95.2428620326117</v>
       </c>
       <c r="E7" t="n">
-        <v>55.5531167656443</v>
+        <v>42.4176530054354</v>
       </c>
       <c r="F7" t="n">
-        <v>41.4589893918119</v>
+        <v>31.8485825875678</v>
       </c>
       <c r="G7" t="n">
-        <v>35.3952648618759</v>
+        <v>27.276766758793</v>
       </c>
       <c r="H7" t="n">
-        <v>32.0116283577418</v>
+        <v>24.7143254265666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-14.111385028907</v>
+        <v>21.2139876212811</v>
       </c>
       <c r="B8" t="n">
-        <v>-54.2243417063968</v>
+        <v>45.8293806396398</v>
       </c>
       <c r="C8" t="n">
-        <v>-271.160700369296</v>
+        <v>176.82870386424</v>
       </c>
       <c r="D8" t="n">
-        <v>-408.781517688182</v>
+        <v>222.169700399685</v>
       </c>
       <c r="E8" t="n">
-        <v>-180.007447463725</v>
+        <v>87.4215905544457</v>
       </c>
       <c r="F8" t="n">
-        <v>-135.017616216537</v>
+        <v>61.1482385488025</v>
       </c>
       <c r="G8" t="n">
-        <v>-115.808900492304</v>
+        <v>50.1303275324961</v>
       </c>
       <c r="H8" t="n">
-        <v>-105.129755521562</v>
+        <v>44.1382123839195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>75.6904898807749</v>
+        <v>-64.1234381542948</v>
       </c>
       <c r="B9" t="n">
-        <v>295.348754351012</v>
+        <v>-94.5781708846995</v>
       </c>
       <c r="C9" t="n">
-        <v>1466.56068512904</v>
+        <v>-288.598984884634</v>
       </c>
       <c r="D9" t="n">
-        <v>2191.06876300632</v>
+        <v>-285.605379788388</v>
       </c>
       <c r="E9" t="n">
-        <v>957.237749549672</v>
+        <v>-92.5865990810018</v>
       </c>
       <c r="F9" t="n">
-        <v>713.499723643788</v>
+        <v>-56.3877275910482</v>
       </c>
       <c r="G9" t="n">
-        <v>609.043198596274</v>
+        <v>-42.0766064615086</v>
       </c>
       <c r="H9" t="n">
-        <v>550.840052620099</v>
+        <v>-34.7808025100015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.44128835506522</v>
+        <v>-0.188098108043892</v>
       </c>
       <c r="B10" t="n">
-        <v>9.71349688187471</v>
+        <v>2.49205803296941</v>
       </c>
       <c r="C10" t="n">
-        <v>47.5126961586862</v>
+        <v>14.9072212331623</v>
       </c>
       <c r="D10" t="n">
-        <v>69.9752332352845</v>
+        <v>23.9335222318276</v>
       </c>
       <c r="E10" t="n">
-        <v>30.2460547625693</v>
+        <v>10.7381887279433</v>
       </c>
       <c r="F10" t="n">
-        <v>22.3787769278204</v>
+        <v>8.07802803080103</v>
       </c>
       <c r="G10" t="n">
-        <v>19.0069209480683</v>
+        <v>6.91442151618617</v>
       </c>
       <c r="H10" t="n">
-        <v>17.1315261634712</v>
+        <v>6.25603074869834</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.41978467065125</v>
+        <v>1.35054194620767</v>
       </c>
       <c r="B2" t="n">
-        <v>11.285854622107</v>
+        <v>5.48152979462688</v>
       </c>
       <c r="C2" t="n">
-        <v>58.5295827565742</v>
+        <v>32.4392543014917</v>
       </c>
       <c r="D2" t="n">
-        <v>89.4244628510506</v>
+        <v>52.4866747310873</v>
       </c>
       <c r="E2" t="n">
-        <v>39.4009581375527</v>
+        <v>23.7237288237801</v>
       </c>
       <c r="F2" t="n">
-        <v>29.4820736437032</v>
+        <v>17.9816007542557</v>
       </c>
       <c r="G2" t="n">
-        <v>25.2215392384687</v>
+        <v>15.4948468241698</v>
       </c>
       <c r="H2" t="n">
-        <v>22.8454740550631</v>
+        <v>14.0975404343608</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.70181140860582</v>
+        <v>1.5059293234181</v>
       </c>
       <c r="B3" t="n">
-        <v>8.81727979372405</v>
+        <v>5.46438711450652</v>
       </c>
       <c r="C3" t="n">
-        <v>45.4956626018557</v>
+        <v>30.4552778441858</v>
       </c>
       <c r="D3" t="n">
-        <v>69.1432575720415</v>
+        <v>47.9078207667353</v>
       </c>
       <c r="E3" t="n">
-        <v>30.3356330844563</v>
+        <v>21.3375339761515</v>
       </c>
       <c r="F3" t="n">
-        <v>22.6318607206055</v>
+        <v>16.0367309350002</v>
       </c>
       <c r="G3" t="n">
-        <v>19.3217335138092</v>
+        <v>13.7464480969791</v>
       </c>
       <c r="H3" t="n">
-        <v>17.4759052053899</v>
+        <v>12.4630244758851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.42193586821484</v>
+        <v>1.80771361380783</v>
       </c>
       <c r="B4" t="n">
-        <v>7.7356604842619</v>
+        <v>6.00676435241081</v>
       </c>
       <c r="C4" t="n">
-        <v>39.8215605315589</v>
+        <v>32.1196282441977</v>
       </c>
       <c r="D4" t="n">
-        <v>60.3567803095611</v>
+        <v>49.5380325410009</v>
       </c>
       <c r="E4" t="n">
-        <v>26.4093358269498</v>
+        <v>21.8357187174273</v>
       </c>
       <c r="F4" t="n">
-        <v>19.6637307198314</v>
+        <v>16.3148524772973</v>
       </c>
       <c r="G4" t="n">
-        <v>16.7646126060028</v>
+        <v>13.9348539031912</v>
       </c>
       <c r="H4" t="n">
-        <v>15.1483255010842</v>
+        <v>12.6045479673671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.89090692366676</v>
+        <v>0.585037437464036</v>
       </c>
       <c r="B5" t="n">
-        <v>9.04392048002229</v>
+        <v>2.36751951972822</v>
       </c>
       <c r="C5" t="n">
-        <v>47.5671012328217</v>
+        <v>17.9330623125616</v>
       </c>
       <c r="D5" t="n">
-        <v>73.0396235757958</v>
+        <v>31.4901294013442</v>
       </c>
       <c r="E5" t="n">
-        <v>32.1893565397805</v>
+        <v>14.6333915816546</v>
       </c>
       <c r="F5" t="n">
-        <v>24.0650314782246</v>
+        <v>11.2127119996968</v>
       </c>
       <c r="G5" t="n">
-        <v>20.5677323693388</v>
+        <v>9.70857330714546</v>
       </c>
       <c r="H5" t="n">
-        <v>18.6151259231284</v>
+        <v>8.85380021276034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.2745119401958</v>
+        <v>0.951189075853075</v>
       </c>
       <c r="B6" t="n">
-        <v>6.96764610745668</v>
+        <v>3.15447935593261</v>
       </c>
       <c r="C6" t="n">
-        <v>36.5011055874781</v>
+        <v>19.5944851564971</v>
       </c>
       <c r="D6" t="n">
-        <v>55.8345733355673</v>
+        <v>32.1766579983367</v>
       </c>
       <c r="E6" t="n">
-        <v>24.5357909912353</v>
+        <v>14.5489196438964</v>
       </c>
       <c r="F6" t="n">
-        <v>18.3112868447993</v>
+        <v>11.0025112277932</v>
       </c>
       <c r="G6" t="n">
-        <v>15.634166831747</v>
+        <v>9.45951871166512</v>
       </c>
       <c r="H6" t="n">
-        <v>14.140881421918</v>
+        <v>8.59068163972799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.99311215653442</v>
+        <v>1.33235704434206</v>
       </c>
       <c r="B7" t="n">
-        <v>5.88681171382674</v>
+        <v>3.98949333204109</v>
       </c>
       <c r="C7" t="n">
-        <v>30.9353410918724</v>
+        <v>22.5627051019505</v>
       </c>
       <c r="D7" t="n">
-        <v>47.403682753483</v>
+        <v>35.7217848159611</v>
       </c>
       <c r="E7" t="n">
-        <v>20.8357502137936</v>
+        <v>15.9091635921172</v>
       </c>
       <c r="F7" t="n">
-        <v>15.549607247569</v>
+        <v>11.9451283760972</v>
       </c>
       <c r="G7" t="n">
-        <v>13.2753469175144</v>
+        <v>10.2304232762255</v>
       </c>
       <c r="H7" t="n">
-        <v>12.0062803174922</v>
+        <v>9.26935411135751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.52913370820111</v>
+        <v>-2.29878381821564</v>
       </c>
       <c r="B8" t="n">
-        <v>5.87584199130089</v>
+        <v>-4.9661497165938</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3834351783843</v>
+        <v>-19.1614594246008</v>
       </c>
       <c r="D8" t="n">
-        <v>44.2962612604031</v>
+        <v>-24.0746870081265</v>
       </c>
       <c r="E8" t="n">
-        <v>19.5059134932655</v>
+        <v>-9.47315239911022</v>
       </c>
       <c r="F8" t="n">
-        <v>14.6307387782798</v>
+        <v>-6.62612724197907</v>
       </c>
       <c r="G8" t="n">
-        <v>12.5492496370646</v>
+        <v>-5.4322076448253</v>
       </c>
       <c r="H8" t="n">
-        <v>11.3920393054015</v>
+        <v>-4.78289184496998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.37556331991669</v>
+        <v>-1.1653491688445</v>
       </c>
       <c r="B9" t="n">
-        <v>5.36752917979896</v>
+        <v>-1.71881914014207</v>
       </c>
       <c r="C9" t="n">
-        <v>26.6525832779396</v>
+        <v>-5.24486204803025</v>
       </c>
       <c r="D9" t="n">
-        <v>39.8194519094037</v>
+        <v>-5.19045767872047</v>
       </c>
       <c r="E9" t="n">
-        <v>17.3963880904221</v>
+        <v>-1.68262525202664</v>
       </c>
       <c r="F9" t="n">
-        <v>12.966807985535</v>
+        <v>-1.0247640078678</v>
       </c>
       <c r="G9" t="n">
-        <v>11.0684642886234</v>
+        <v>-0.764680431665721</v>
       </c>
       <c r="H9" t="n">
-        <v>10.0107077219174</v>
+        <v>-0.6320899262957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.2182440497216</v>
+        <v>-0.0938641272805485</v>
       </c>
       <c r="B10" t="n">
-        <v>4.84719871529353</v>
+        <v>1.24357897498135</v>
       </c>
       <c r="C10" t="n">
-        <v>23.7096364554623</v>
+        <v>7.43895473367722</v>
       </c>
       <c r="D10" t="n">
-        <v>34.9188211789464</v>
+        <v>11.9432311170078</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0932912802385</v>
+        <v>5.35853722296356</v>
       </c>
       <c r="F10" t="n">
-        <v>11.1673869970333</v>
+        <v>4.03107218431997</v>
       </c>
       <c r="G10" t="n">
-        <v>9.48477401306184</v>
+        <v>3.45041291491999</v>
       </c>
       <c r="H10" t="n">
-        <v>8.54892039606732</v>
+        <v>3.12186482136131</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.13421668750098</v>
+        <v>1.23776538952905</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3434330801248</v>
+        <v>5.02379646964195</v>
       </c>
       <c r="C2" t="n">
-        <v>53.6420893872216</v>
+        <v>29.7304251447099</v>
       </c>
       <c r="D2" t="n">
-        <v>81.9571027801584</v>
+        <v>48.1037923894437</v>
       </c>
       <c r="E2" t="n">
-        <v>36.1107942140486</v>
+        <v>21.7426867274306</v>
       </c>
       <c r="F2" t="n">
-        <v>27.0201828756167</v>
+        <v>16.4800531552871</v>
       </c>
       <c r="G2" t="n">
-        <v>23.1154229808906</v>
+        <v>14.2009547862369</v>
       </c>
       <c r="H2" t="n">
-        <v>20.937770331491</v>
+        <v>12.9203300024382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.43024565764861</v>
+        <v>1.35456464033922</v>
       </c>
       <c r="B3" t="n">
-        <v>7.93103318119008</v>
+        <v>4.91514804269521</v>
       </c>
       <c r="C3" t="n">
-        <v>40.9227809638496</v>
+        <v>27.3941424992008</v>
       </c>
       <c r="D3" t="n">
-        <v>62.1934976419549</v>
+        <v>43.0924871421151</v>
       </c>
       <c r="E3" t="n">
-        <v>27.2865235303613</v>
+        <v>19.1928456313796</v>
       </c>
       <c r="F3" t="n">
-        <v>20.3570763916276</v>
+        <v>14.4248394219988</v>
       </c>
       <c r="G3" t="n">
-        <v>17.3796582620875</v>
+        <v>12.3647585798796</v>
       </c>
       <c r="H3" t="n">
-        <v>15.7193587248909</v>
+        <v>11.2103350430803</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.16966471581203</v>
+        <v>1.61942043785941</v>
       </c>
       <c r="B4" t="n">
-        <v>6.92990670251538</v>
+        <v>5.38109404244024</v>
       </c>
       <c r="C4" t="n">
-        <v>35.6737087665246</v>
+        <v>28.7740170997184</v>
       </c>
       <c r="D4" t="n">
-        <v>54.0699604462262</v>
+        <v>44.3781037745561</v>
       </c>
       <c r="E4" t="n">
-        <v>23.6585141926148</v>
+        <v>19.5612894079307</v>
       </c>
       <c r="F4" t="n">
-        <v>17.6155377538935</v>
+        <v>14.6154818664796</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0183945507657</v>
+        <v>12.4833862161818</v>
       </c>
       <c r="H4" t="n">
-        <v>13.5704614538631</v>
+        <v>11.2916462167572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.60941619621899</v>
+        <v>0.528071710720039</v>
       </c>
       <c r="B5" t="n">
-        <v>8.16330418135839</v>
+        <v>2.13699158871832</v>
       </c>
       <c r="C5" t="n">
-        <v>42.9354412443965</v>
+        <v>16.186900679199</v>
       </c>
       <c r="D5" t="n">
-        <v>65.9276765931568</v>
+        <v>28.4239015127737</v>
       </c>
       <c r="E5" t="n">
-        <v>29.055044150032</v>
+        <v>13.2085224488486</v>
       </c>
       <c r="F5" t="n">
-        <v>21.7217933886818</v>
+        <v>10.1209181298846</v>
       </c>
       <c r="G5" t="n">
-        <v>18.5650300688259</v>
+        <v>8.76323904531386</v>
       </c>
       <c r="H5" t="n">
-        <v>16.8025510198219</v>
+        <v>7.99169612972539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.01992042377811</v>
+        <v>0.844720226452124</v>
       </c>
       <c r="B6" t="n">
-        <v>6.18774095197683</v>
+        <v>2.80139099946259</v>
       </c>
       <c r="C6" t="n">
-        <v>32.4154502615104</v>
+        <v>17.4012279564549</v>
       </c>
       <c r="D6" t="n">
-        <v>49.5848771071918</v>
+        <v>28.5750483482486</v>
       </c>
       <c r="E6" t="n">
-        <v>21.7894417087478</v>
+        <v>12.9204245593379</v>
       </c>
       <c r="F6" t="n">
-        <v>16.2616610754242</v>
+        <v>9.77097404903236</v>
       </c>
       <c r="G6" t="n">
-        <v>13.884197455337</v>
+        <v>8.40069234508338</v>
       </c>
       <c r="H6" t="n">
-        <v>12.5580590233779</v>
+        <v>7.62910626741684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.7629096917864</v>
+        <v>1.17847113555044</v>
       </c>
       <c r="B7" t="n">
-        <v>5.20689083652562</v>
+        <v>3.52871083411658</v>
       </c>
       <c r="C7" t="n">
-        <v>27.3623400724254</v>
+        <v>19.9567351825843</v>
       </c>
       <c r="D7" t="n">
-        <v>41.9286047092252</v>
+        <v>31.5959543237468</v>
       </c>
       <c r="E7" t="n">
-        <v>18.4292418603303</v>
+        <v>14.0716710762154</v>
       </c>
       <c r="F7" t="n">
-        <v>13.7536431305882</v>
+        <v>10.5654779711293</v>
       </c>
       <c r="G7" t="n">
-        <v>11.7420575987083</v>
+        <v>9.04881959884009</v>
       </c>
       <c r="H7" t="n">
-        <v>10.6195669243292</v>
+        <v>8.19875296326812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.32035477459298</v>
+        <v>-1.98492137990259</v>
       </c>
       <c r="B8" t="n">
-        <v>5.07358904349502</v>
+        <v>-4.28810080798103</v>
       </c>
       <c r="C8" t="n">
-        <v>25.3715935523806</v>
+        <v>-16.5452663189306</v>
       </c>
       <c r="D8" t="n">
-        <v>38.2483099666908</v>
+        <v>-20.7876706710012</v>
       </c>
       <c r="E8" t="n">
-        <v>16.8426906525584</v>
+        <v>-8.17974382065424</v>
       </c>
       <c r="F8" t="n">
-        <v>12.6331436538994</v>
+        <v>-5.72143475360302</v>
       </c>
       <c r="G8" t="n">
-        <v>10.8358488122991</v>
+        <v>-4.69052592455327</v>
       </c>
       <c r="H8" t="n">
-        <v>9.83663718127878</v>
+        <v>-4.12986388959872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.18382902453835</v>
+        <v>-1.00291578717242</v>
       </c>
       <c r="B9" t="n">
-        <v>4.6193706542621</v>
+        <v>-1.4792397824009</v>
       </c>
       <c r="C9" t="n">
-        <v>22.9375857923146</v>
+        <v>-4.51380160568245</v>
       </c>
       <c r="D9" t="n">
-        <v>34.2691770193581</v>
+        <v>-4.46698044484013</v>
       </c>
       <c r="E9" t="n">
-        <v>14.9715748053112</v>
+        <v>-1.44809081627076</v>
       </c>
       <c r="F9" t="n">
-        <v>11.1594162381574</v>
+        <v>-0.881926232148746</v>
       </c>
       <c r="G9" t="n">
-        <v>9.52567511231121</v>
+        <v>-0.658094670303667</v>
       </c>
       <c r="H9" t="n">
-        <v>8.61535502276533</v>
+        <v>-0.543985427666443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.04907636393965</v>
+        <v>-0.0808299760416227</v>
       </c>
       <c r="B10" t="n">
-        <v>4.17410748256489</v>
+        <v>1.0708932332921</v>
       </c>
       <c r="C10" t="n">
-        <v>20.4172712427461</v>
+        <v>6.40596733084899</v>
       </c>
       <c r="D10" t="n">
-        <v>30.0699272562336</v>
+        <v>10.2847713286879</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9974081463998</v>
+        <v>4.61444055252028</v>
       </c>
       <c r="F10" t="n">
-        <v>9.6166623988288</v>
+        <v>3.47130983391305</v>
       </c>
       <c r="G10" t="n">
-        <v>8.16770025405507</v>
+        <v>2.97128201504606</v>
       </c>
       <c r="H10" t="n">
-        <v>7.36180105026192</v>
+        <v>2.68835673464054</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.18937408878535</v>
+        <v>2.44430867224269</v>
       </c>
       <c r="B2" t="n">
-        <v>20.4259574491176</v>
+        <v>9.9208698047376</v>
       </c>
       <c r="C2" t="n">
-        <v>105.931079827892</v>
+        <v>58.7109129286015</v>
       </c>
       <c r="D2" t="n">
-        <v>161.846872413882</v>
+        <v>94.9941870244221</v>
       </c>
       <c r="E2" t="n">
-        <v>71.3107089644459</v>
+        <v>42.9369234067336</v>
       </c>
       <c r="F2" t="n">
-        <v>53.3587931018031</v>
+        <v>32.5444039615743</v>
       </c>
       <c r="G2" t="n">
-        <v>45.6477692240585</v>
+        <v>28.0436965129009</v>
       </c>
       <c r="H2" t="n">
-        <v>41.3473942894474</v>
+        <v>25.5147501621558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.29946897930936</v>
+        <v>3.51118328529077</v>
       </c>
       <c r="B3" t="n">
-        <v>20.5581264353005</v>
+        <v>12.7406143186487</v>
       </c>
       <c r="C3" t="n">
-        <v>106.076432404068</v>
+        <v>71.0086860336026</v>
       </c>
       <c r="D3" t="n">
-        <v>161.212512766845</v>
+        <v>111.700553867338</v>
       </c>
       <c r="E3" t="n">
-        <v>70.7297256109572</v>
+        <v>49.7500058477755</v>
       </c>
       <c r="F3" t="n">
-        <v>52.7678223947808</v>
+        <v>37.3907996438191</v>
       </c>
       <c r="G3" t="n">
-        <v>45.0500210743912</v>
+        <v>32.0508393320061</v>
       </c>
       <c r="H3" t="n">
-        <v>40.7463386882035</v>
+        <v>29.0584442067791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.18284533706053</v>
+        <v>4.61482644299362</v>
       </c>
       <c r="B4" t="n">
-        <v>19.7480011679481</v>
+        <v>15.3343841406085</v>
       </c>
       <c r="C4" t="n">
-        <v>101.658575306744</v>
+        <v>81.9966772547666</v>
       </c>
       <c r="D4" t="n">
-        <v>154.081965007611</v>
+        <v>126.463296374993</v>
       </c>
       <c r="E4" t="n">
-        <v>67.4191422718704</v>
+        <v>55.7433718312788</v>
       </c>
       <c r="F4" t="n">
-        <v>50.1986065716662</v>
+        <v>41.6494139617491</v>
       </c>
       <c r="G4" t="n">
-        <v>42.7975852866207</v>
+        <v>35.57362835601</v>
       </c>
       <c r="H4" t="n">
-        <v>38.6714425092058</v>
+        <v>32.1775533566187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.82541799456401</v>
+        <v>1.58364230032624</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4810573064062</v>
+        <v>6.40865664006357</v>
       </c>
       <c r="C5" t="n">
-        <v>128.75974902175</v>
+        <v>48.5431431117683</v>
       </c>
       <c r="D5" t="n">
-        <v>197.711513977507</v>
+        <v>85.2408713857416</v>
       </c>
       <c r="E5" t="n">
-        <v>87.1336146583152</v>
+        <v>39.6112392506005</v>
       </c>
       <c r="F5" t="n">
-        <v>65.1418172019833</v>
+        <v>30.3517756078422</v>
       </c>
       <c r="G5" t="n">
-        <v>55.6749515775672</v>
+        <v>26.2802111120605</v>
       </c>
       <c r="H5" t="n">
-        <v>50.3894262998816</v>
+        <v>23.9664193053059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.1887095068886</v>
+        <v>3.00628096586073</v>
       </c>
       <c r="B6" t="n">
-        <v>22.0215963381566</v>
+        <v>9.96989082999692</v>
       </c>
       <c r="C6" t="n">
-        <v>115.363582011383</v>
+        <v>61.9293569041332</v>
       </c>
       <c r="D6" t="n">
-        <v>176.46798025422</v>
+        <v>101.695947673343</v>
       </c>
       <c r="E6" t="n">
-        <v>77.546602785713</v>
+        <v>45.9825930612759</v>
       </c>
       <c r="F6" t="n">
-        <v>57.8737440319795</v>
+        <v>34.7739907032875</v>
       </c>
       <c r="G6" t="n">
-        <v>49.4125714398258</v>
+        <v>29.8972851675968</v>
       </c>
       <c r="H6" t="n">
-        <v>44.6929677163073</v>
+        <v>27.1512818564715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.30639594361664</v>
+        <v>4.21570408486077</v>
       </c>
       <c r="B7" t="n">
-        <v>18.6264307260377</v>
+        <v>12.6231353733831</v>
       </c>
       <c r="C7" t="n">
-        <v>97.88235395413</v>
+        <v>71.3905393961214</v>
       </c>
       <c r="D7" t="n">
-        <v>149.98974927174</v>
+        <v>113.027115972153</v>
       </c>
       <c r="E7" t="n">
-        <v>65.9262902991623</v>
+        <v>50.3381028582517</v>
       </c>
       <c r="F7" t="n">
-        <v>49.2004324741108</v>
+        <v>37.7955193790915</v>
       </c>
       <c r="G7" t="n">
-        <v>42.0044570378247</v>
+        <v>32.3700297743658</v>
       </c>
       <c r="H7" t="n">
-        <v>37.9890099229594</v>
+        <v>29.3291157630856</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.49339478900001</v>
+        <v>-3.74838090523776</v>
       </c>
       <c r="B8" t="n">
-        <v>9.58110708273671</v>
+        <v>-8.09776918678738</v>
       </c>
       <c r="C8" t="n">
-        <v>47.9124250310931</v>
+        <v>-31.2445424639421</v>
       </c>
       <c r="D8" t="n">
-        <v>72.2291755171658</v>
+        <v>-39.2560171886384</v>
       </c>
       <c r="E8" t="n">
-        <v>31.8062068725234</v>
+        <v>-15.4468564133163</v>
       </c>
       <c r="F8" t="n">
-        <v>23.8567808905992</v>
+        <v>-10.8045169940291</v>
       </c>
       <c r="G8" t="n">
-        <v>20.4627191743274</v>
+        <v>-8.85772000298621</v>
       </c>
       <c r="H8" t="n">
-        <v>18.5757800562694</v>
+        <v>-7.79895017593215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.71706891818957</v>
+        <v>-2.30184533104388</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6021631216443</v>
+        <v>-3.39508185050483</v>
       </c>
       <c r="C9" t="n">
-        <v>52.6452723516461</v>
+        <v>-10.3598659869457</v>
       </c>
       <c r="D9" t="n">
-        <v>78.6530096840163</v>
+        <v>-10.252404252015</v>
       </c>
       <c r="E9" t="n">
-        <v>34.3620571186151</v>
+        <v>-3.323590202681</v>
       </c>
       <c r="F9" t="n">
-        <v>25.612569363774</v>
+        <v>-2.02415577236067</v>
       </c>
       <c r="G9" t="n">
-        <v>21.8628832677302</v>
+        <v>-1.51042805746852</v>
       </c>
       <c r="H9" t="n">
-        <v>19.7735592440408</v>
+        <v>-1.24852986945217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.32935633939874</v>
+        <v>-0.179473891108306</v>
       </c>
       <c r="B10" t="n">
-        <v>9.26813724916175</v>
+        <v>2.37779824951968</v>
       </c>
       <c r="C10" t="n">
-        <v>45.3342595804113</v>
+        <v>14.2237315842841</v>
       </c>
       <c r="D10" t="n">
-        <v>66.76689904301</v>
+        <v>22.8361805843943</v>
       </c>
       <c r="E10" t="n">
-        <v>28.8592862276239</v>
+        <v>10.245847417081</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3527196804312</v>
+        <v>7.70765393786692</v>
       </c>
       <c r="G10" t="n">
-        <v>18.1354618396363</v>
+        <v>6.59739827889894</v>
       </c>
       <c r="H10" t="n">
-        <v>16.3460530951457</v>
+        <v>5.96919444346615</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.56669239860511</v>
+        <v>1.19630776609685</v>
       </c>
       <c r="B5" t="n">
-        <v>2.29328112948614</v>
+        <v>3.99281380941188</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3707346666428</v>
+        <v>24.6828784700838</v>
       </c>
       <c r="D5" t="n">
-        <v>30.50269234083</v>
+        <v>40.6127670394144</v>
       </c>
       <c r="E5" t="n">
-        <v>14.1745318232655</v>
+        <v>18.4302861919206</v>
       </c>
       <c r="F5" t="n">
-        <v>10.8611146075025</v>
+        <v>13.9738109228286</v>
       </c>
       <c r="G5" t="n">
-        <v>9.40414124317986</v>
+        <v>12.0335859294917</v>
       </c>
       <c r="H5" t="n">
-        <v>8.5761712978377</v>
+        <v>10.9397233855468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.21070990378141</v>
+        <v>1.68324407832866</v>
       </c>
       <c r="B6" t="n">
-        <v>4.01514219880668</v>
+        <v>5.27428900237067</v>
       </c>
       <c r="C6" t="n">
-        <v>24.9406115363474</v>
+        <v>30.3936339057642</v>
       </c>
       <c r="D6" t="n">
-        <v>40.9556832580685</v>
+        <v>48.506518089384</v>
       </c>
       <c r="E6" t="n">
-        <v>18.5184224139535</v>
+        <v>21.6977292033894</v>
       </c>
       <c r="F6" t="n">
-        <v>14.0044178892703</v>
+        <v>16.329934248888</v>
       </c>
       <c r="G6" t="n">
-        <v>12.0404378897509</v>
+        <v>14.0049543062049</v>
       </c>
       <c r="H6" t="n">
-        <v>10.93454877215</v>
+        <v>12.7004259637176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.44302786170129</v>
+        <v>2.78270326633036</v>
       </c>
       <c r="B7" t="n">
-        <v>7.31518882692656</v>
+        <v>8.20264214525837</v>
       </c>
       <c r="C7" t="n">
-        <v>41.3712806439469</v>
+        <v>45.2360811284235</v>
       </c>
       <c r="D7" t="n">
-        <v>65.4999468390894</v>
+        <v>70.860938744779</v>
       </c>
       <c r="E7" t="n">
-        <v>29.1712571168182</v>
+        <v>31.4293462650484</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9027486350815</v>
+        <v>23.5545978578337</v>
       </c>
       <c r="G7" t="n">
-        <v>18.7586422175284</v>
+        <v>20.1541220694307</v>
       </c>
       <c r="H7" t="n">
-        <v>16.9964128235645</v>
+        <v>18.2508151220304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.11877035519044</v>
+        <v>0.610637768372804</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.73759767787664</v>
+        <v>4.48978127690405</v>
       </c>
       <c r="C8" t="n">
-        <v>-25.9964382653503</v>
+        <v>24.125036310891</v>
       </c>
       <c r="D8" t="n">
-        <v>-32.6622362470406</v>
+        <v>37.4625319434865</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.852268507562</v>
+        <v>16.7617674120968</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.98969665970804</v>
+        <v>12.6943519912841</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.36990056727932</v>
+        <v>10.9567038878042</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.48897089842624</v>
+        <v>9.98880210287261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.16019326185478</v>
+        <v>1.22850688945335</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.18615366462526</v>
+        <v>6.7956155324505</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.72233555265408</v>
+        <v>35.0951771011712</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.62148684984429</v>
+        <v>53.2655960493593</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.11906150433754</v>
+        <v>23.4630345958518</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.89959229728743</v>
+        <v>17.5715897337632</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.41747860651446</v>
+        <v>15.0421416033898</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.17169723562265</v>
+        <v>13.6293037731159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.191030973076905</v>
+        <v>1.73068494282918</v>
       </c>
       <c r="B10" t="n">
-        <v>2.53091472292308</v>
+        <v>8.06042761939896</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1396577438151</v>
+        <v>40.0877133204429</v>
       </c>
       <c r="D10" t="n">
-        <v>24.3066987151029</v>
+        <v>59.4258845277337</v>
       </c>
       <c r="E10" t="n">
-        <v>10.9056208120062</v>
+        <v>25.7665945142547</v>
       </c>
       <c r="F10" t="n">
-        <v>8.20398233301921</v>
+        <v>19.094322478911</v>
       </c>
       <c r="G10" t="n">
-        <v>7.02223262231169</v>
+        <v>16.23046723139</v>
       </c>
       <c r="H10" t="n">
-        <v>6.35357608830391</v>
+        <v>14.6353554234371</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.28928879173938</v>
+        <v>2.72173439787788</v>
       </c>
       <c r="B5" t="n">
-        <v>5.21747188392099</v>
+        <v>9.0840994243937</v>
       </c>
       <c r="C5" t="n">
-        <v>39.5203704251335</v>
+        <v>56.1563180266336</v>
       </c>
       <c r="D5" t="n">
-        <v>69.3970475865003</v>
+        <v>92.3986019122993</v>
       </c>
       <c r="E5" t="n">
-        <v>32.2486503310662</v>
+        <v>41.9309690306088</v>
       </c>
       <c r="F5" t="n">
-        <v>24.71025438795</v>
+        <v>31.7919877609697</v>
       </c>
       <c r="G5" t="n">
-        <v>21.3954765064966</v>
+        <v>27.3777582009488</v>
       </c>
       <c r="H5" t="n">
-        <v>19.5117519796558</v>
+        <v>24.8890981781868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.53833265439701</v>
+        <v>2.1387363917037</v>
       </c>
       <c r="B6" t="n">
-        <v>5.10165510101165</v>
+        <v>6.70153186633118</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6896368214736</v>
+        <v>38.6182679905351</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0384484691579</v>
+        <v>61.6325682105524</v>
       </c>
       <c r="E6" t="n">
-        <v>23.5295786532573</v>
+        <v>27.5692180724608</v>
       </c>
       <c r="F6" t="n">
-        <v>17.7940671647267</v>
+        <v>20.7488771841715</v>
       </c>
       <c r="G6" t="n">
-        <v>15.2986266331782</v>
+        <v>17.7947487381443</v>
       </c>
       <c r="H6" t="n">
-        <v>13.8934796723462</v>
+        <v>16.1372100151466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.55238403697424</v>
+        <v>4.04630287599918</v>
       </c>
       <c r="B7" t="n">
-        <v>10.6369478726001</v>
+        <v>11.9273854689222</v>
       </c>
       <c r="C7" t="n">
-        <v>60.157593473532</v>
+        <v>65.7773638258783</v>
       </c>
       <c r="D7" t="n">
-        <v>95.2428620326117</v>
+        <v>103.038230381321</v>
       </c>
       <c r="E7" t="n">
-        <v>42.4176530054354</v>
+        <v>45.7011193833635</v>
       </c>
       <c r="F7" t="n">
-        <v>31.8485825875678</v>
+        <v>34.2505211419267</v>
       </c>
       <c r="G7" t="n">
-        <v>27.276766758793</v>
+        <v>29.3059210011703</v>
       </c>
       <c r="H7" t="n">
-        <v>24.7143254265666</v>
+        <v>26.5383401137798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21.2139876212811</v>
+        <v>-4.1535799639074</v>
       </c>
       <c r="B8" t="n">
-        <v>45.8293806396398</v>
+        <v>-30.5396529988135</v>
       </c>
       <c r="C8" t="n">
-        <v>176.82870386424</v>
+        <v>-164.099360765839</v>
       </c>
       <c r="D8" t="n">
-        <v>222.169700399685</v>
+        <v>-254.821483597962</v>
       </c>
       <c r="E8" t="n">
-        <v>87.4215905544457</v>
+        <v>-114.01414207982</v>
       </c>
       <c r="F8" t="n">
-        <v>61.1482385488025</v>
+        <v>-86.3474367566385</v>
       </c>
       <c r="G8" t="n">
-        <v>50.1303275324961</v>
+        <v>-74.5278921415581</v>
       </c>
       <c r="H8" t="n">
-        <v>44.1382123839195</v>
+        <v>-67.9441895454425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-64.1234381542948</v>
+        <v>36.4671471479124</v>
       </c>
       <c r="B9" t="n">
-        <v>-94.5781708846995</v>
+        <v>201.721873690739</v>
       </c>
       <c r="C9" t="n">
-        <v>-288.598984884634</v>
+        <v>1041.76948336035</v>
       </c>
       <c r="D9" t="n">
-        <v>-285.605379788388</v>
+        <v>1581.14239792141</v>
       </c>
       <c r="E9" t="n">
-        <v>-92.5865990810018</v>
+        <v>696.479557818529</v>
       </c>
       <c r="F9" t="n">
-        <v>-56.3877275910482</v>
+        <v>521.597195705608</v>
       </c>
       <c r="G9" t="n">
-        <v>-42.0766064615086</v>
+        <v>446.512751356758</v>
       </c>
       <c r="H9" t="n">
-        <v>-34.7808025100015</v>
+        <v>404.573902258679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.188098108043892</v>
+        <v>1.70411404037169</v>
       </c>
       <c r="B10" t="n">
-        <v>2.49205803296941</v>
+        <v>7.93667728752715</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9072212331623</v>
+        <v>39.4722536870796</v>
       </c>
       <c r="D10" t="n">
-        <v>23.9335222318276</v>
+        <v>58.513529342708</v>
       </c>
       <c r="E10" t="n">
-        <v>10.7381887279433</v>
+        <v>25.3710045067628</v>
       </c>
       <c r="F10" t="n">
-        <v>8.07802803080103</v>
+        <v>18.8011706940174</v>
       </c>
       <c r="G10" t="n">
-        <v>6.91442151618617</v>
+        <v>15.9812837139442</v>
       </c>
       <c r="H10" t="n">
-        <v>6.25603074869834</v>
+        <v>14.4106613778813</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.585037437464036</v>
+        <v>1.23503479421705</v>
       </c>
       <c r="B5" t="n">
-        <v>2.36751951972822</v>
+        <v>4.12206968909267</v>
       </c>
       <c r="C5" t="n">
-        <v>17.9330623125616</v>
+        <v>25.481915771093</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4901294013442</v>
+        <v>41.9274887320654</v>
       </c>
       <c r="E5" t="n">
-        <v>14.6333915816546</v>
+        <v>19.0269137754282</v>
       </c>
       <c r="F5" t="n">
-        <v>11.2127119996968</v>
+        <v>14.4261729185384</v>
       </c>
       <c r="G5" t="n">
-        <v>9.70857330714546</v>
+        <v>12.4231387133867</v>
       </c>
       <c r="H5" t="n">
-        <v>8.85380021276034</v>
+        <v>11.2938655111652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.951189075853075</v>
+        <v>1.32243353614267</v>
       </c>
       <c r="B6" t="n">
-        <v>3.15447935593261</v>
+        <v>4.14372267566153</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5944851564971</v>
+        <v>23.8786289402158</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1766579983367</v>
+        <v>38.1089392018569</v>
       </c>
       <c r="E6" t="n">
-        <v>14.5489196438964</v>
+        <v>17.0467284727924</v>
       </c>
       <c r="F6" t="n">
-        <v>11.0025112277932</v>
+        <v>12.8295432443623</v>
       </c>
       <c r="G6" t="n">
-        <v>9.45951871166512</v>
+        <v>11.0029326614716</v>
       </c>
       <c r="H6" t="n">
-        <v>8.59068163972799</v>
+        <v>9.97803552910402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.33235704434206</v>
+        <v>1.51760622845579</v>
       </c>
       <c r="B7" t="n">
-        <v>3.98949333204109</v>
+        <v>4.47348481602716</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5627051019505</v>
+        <v>24.6704559922261</v>
       </c>
       <c r="D7" t="n">
-        <v>35.7217848159611</v>
+        <v>38.6455154218135</v>
       </c>
       <c r="E7" t="n">
-        <v>15.9091635921172</v>
+        <v>17.1406603877787</v>
       </c>
       <c r="F7" t="n">
-        <v>11.9451283760972</v>
+        <v>12.8459993741841</v>
       </c>
       <c r="G7" t="n">
-        <v>10.2304232762255</v>
+        <v>10.9914778020731</v>
       </c>
       <c r="H7" t="n">
-        <v>9.26935411135751</v>
+        <v>9.95346900214557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.29878381821564</v>
+        <v>0.450088996899228</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.9661497165938</v>
+        <v>3.30932879668352</v>
       </c>
       <c r="C8" t="n">
-        <v>-19.1614594246008</v>
+        <v>17.7820861330955</v>
       </c>
       <c r="D8" t="n">
-        <v>-24.0746870081265</v>
+        <v>27.6128898294004</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.47315239911022</v>
+        <v>12.3547665596782</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.62612724197907</v>
+        <v>9.35675526469325</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.4322076448253</v>
+        <v>8.07596928589084</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.78289184496998</v>
+        <v>7.36254806296562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.1653491688445</v>
+        <v>0.662736759633709</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.71881914014207</v>
+        <v>3.66599834022646</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.24486204803025</v>
+        <v>18.9326280141179</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.19045767872047</v>
+        <v>28.7349373689051</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.68262525202664</v>
+        <v>12.6574915067409</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.0247640078678</v>
+        <v>9.47926181101758</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.764680431665721</v>
+        <v>8.11471247720705</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6320899262957</v>
+        <v>7.35253558299339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0938641272805485</v>
+        <v>0.850381637803041</v>
       </c>
       <c r="B10" t="n">
-        <v>1.24357897498135</v>
+        <v>3.96053578022831</v>
       </c>
       <c r="C10" t="n">
-        <v>7.43895473367722</v>
+        <v>19.6973200988793</v>
       </c>
       <c r="D10" t="n">
-        <v>11.9432311170078</v>
+        <v>29.19923769024</v>
       </c>
       <c r="E10" t="n">
-        <v>5.35853722296356</v>
+        <v>12.6605590084003</v>
       </c>
       <c r="F10" t="n">
-        <v>4.03107218431997</v>
+        <v>9.38210116730553</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45041291491999</v>
+        <v>7.97493002046664</v>
       </c>
       <c r="H10" t="n">
-        <v>3.12186482136131</v>
+        <v>7.19116299380691</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.528071710720039</v>
+        <v>1.11477812327363</v>
       </c>
       <c r="B5" t="n">
-        <v>2.13699158871832</v>
+        <v>3.72069931432413</v>
       </c>
       <c r="C5" t="n">
-        <v>16.186900679199</v>
+        <v>23.0007141286445</v>
       </c>
       <c r="D5" t="n">
-        <v>28.4239015127737</v>
+        <v>37.844963899935</v>
       </c>
       <c r="E5" t="n">
-        <v>13.2085224488486</v>
+        <v>17.1742426444816</v>
       </c>
       <c r="F5" t="n">
-        <v>10.1209181298846</v>
+        <v>13.0214808906207</v>
       </c>
       <c r="G5" t="n">
-        <v>8.76323904531386</v>
+        <v>11.2134842879927</v>
       </c>
       <c r="H5" t="n">
-        <v>7.99169612972539</v>
+        <v>10.1941696363485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.844720226452124</v>
+        <v>1.17441041374078</v>
       </c>
       <c r="B6" t="n">
-        <v>2.80139099946259</v>
+        <v>3.67990596801206</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4012279564549</v>
+        <v>21.2058373648321</v>
       </c>
       <c r="D6" t="n">
-        <v>28.5750483482486</v>
+        <v>33.8433152457853</v>
       </c>
       <c r="E6" t="n">
-        <v>12.9204245593379</v>
+        <v>15.1386477214224</v>
       </c>
       <c r="F6" t="n">
-        <v>9.77097404903236</v>
+        <v>11.3935020384202</v>
       </c>
       <c r="G6" t="n">
-        <v>8.40069234508338</v>
+        <v>9.77134831063954</v>
       </c>
       <c r="H6" t="n">
-        <v>7.62910626741684</v>
+        <v>8.86117034526794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.17847113555044</v>
+        <v>1.34232422379684</v>
       </c>
       <c r="B7" t="n">
-        <v>3.52871083411658</v>
+        <v>3.95680178477573</v>
       </c>
       <c r="C7" t="n">
-        <v>19.9567351825843</v>
+        <v>21.8210429487861</v>
       </c>
       <c r="D7" t="n">
-        <v>31.5959543237468</v>
+        <v>34.1819969628083</v>
       </c>
       <c r="E7" t="n">
-        <v>14.0716710762154</v>
+        <v>15.160931221139</v>
       </c>
       <c r="F7" t="n">
-        <v>10.5654779711293</v>
+        <v>11.3622992680994</v>
       </c>
       <c r="G7" t="n">
-        <v>9.04881959884009</v>
+        <v>9.72197308656326</v>
       </c>
       <c r="H7" t="n">
-        <v>8.19875296326812</v>
+        <v>8.80385326698745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.98492137990259</v>
+        <v>0.388636489314447</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.28810080798103</v>
+        <v>2.85749248346598</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.5452663189306</v>
+        <v>15.3542245535067</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.7876706710012</v>
+        <v>23.8427880642624</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.17974382065424</v>
+        <v>10.6679193118064</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.72143475360302</v>
+        <v>8.07923886719456</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.69052592455327</v>
+        <v>6.97332388194914</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.12986388959872</v>
+        <v>6.35730900180277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.00291578717242</v>
+        <v>0.570360520903098</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.4792397824009</v>
+        <v>3.15500942503492</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.51380160568245</v>
+        <v>16.2936843614425</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.46698044484013</v>
+        <v>24.7296888358884</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.44809081627076</v>
+        <v>10.8932141520282</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.881926232148746</v>
+        <v>8.15798524182818</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.658094670303667</v>
+        <v>6.98363500771667</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.543985427666443</v>
+        <v>6.3276949167456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0808299760416227</v>
+        <v>0.732296026195514</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0708932332921</v>
+        <v>3.41056824905018</v>
       </c>
       <c r="C10" t="n">
-        <v>6.40596733084899</v>
+        <v>16.9621127666578</v>
       </c>
       <c r="D10" t="n">
-        <v>10.2847713286879</v>
+        <v>25.1445760091229</v>
       </c>
       <c r="E10" t="n">
-        <v>4.61444055252028</v>
+        <v>10.9024897047609</v>
       </c>
       <c r="F10" t="n">
-        <v>3.47130983391305</v>
+        <v>8.07928475493896</v>
       </c>
       <c r="G10" t="n">
-        <v>2.97128201504606</v>
+        <v>6.86751606991737</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68835673464054</v>
+        <v>6.19258442326424</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.58364230032624</v>
+        <v>3.34312510148903</v>
       </c>
       <c r="B5" t="n">
-        <v>6.40865664006357</v>
+        <v>11.1580618717944</v>
       </c>
       <c r="C5" t="n">
-        <v>48.5431431117683</v>
+        <v>68.9771920979568</v>
       </c>
       <c r="D5" t="n">
-        <v>85.2408713857416</v>
+        <v>113.493838941943</v>
       </c>
       <c r="E5" t="n">
-        <v>39.6112392506005</v>
+        <v>51.5040979771153</v>
       </c>
       <c r="F5" t="n">
-        <v>30.3517756078422</v>
+        <v>39.0503174713885</v>
       </c>
       <c r="G5" t="n">
-        <v>26.2802111120605</v>
+        <v>33.6282889085181</v>
       </c>
       <c r="H5" t="n">
-        <v>23.9664193053059</v>
+        <v>30.5714506668238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.00628096586073</v>
+        <v>4.17961777447463</v>
       </c>
       <c r="B6" t="n">
-        <v>9.96989082999692</v>
+        <v>13.0964441496287</v>
       </c>
       <c r="C6" t="n">
-        <v>61.9293569041332</v>
+        <v>75.4696090358696</v>
       </c>
       <c r="D6" t="n">
-        <v>101.695947673343</v>
+        <v>120.445221102794</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9825930612759</v>
+        <v>53.8770436277254</v>
       </c>
       <c r="F6" t="n">
-        <v>34.7739907032875</v>
+        <v>40.5484173812893</v>
       </c>
       <c r="G6" t="n">
-        <v>29.8972851675968</v>
+        <v>34.775322665647</v>
       </c>
       <c r="H6" t="n">
-        <v>27.1512818564715</v>
+        <v>31.5360836760292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.21570408486077</v>
+        <v>4.80185007740966</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6231353733831</v>
+        <v>14.1545303434795</v>
       </c>
       <c r="C7" t="n">
-        <v>71.3905393961214</v>
+        <v>78.0596631687147</v>
       </c>
       <c r="D7" t="n">
-        <v>113.027115972153</v>
+        <v>122.278076974285</v>
       </c>
       <c r="E7" t="n">
-        <v>50.3381028582517</v>
+        <v>54.2346755479895</v>
       </c>
       <c r="F7" t="n">
-        <v>37.7955193790915</v>
+        <v>40.6459606798637</v>
       </c>
       <c r="G7" t="n">
-        <v>32.3700297743658</v>
+        <v>34.7780784930197</v>
       </c>
       <c r="H7" t="n">
-        <v>29.3291157630856</v>
+        <v>31.4937201773877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.74838090523776</v>
+        <v>0.733911987837223</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.09776918678738</v>
+        <v>5.39616851847802</v>
       </c>
       <c r="C8" t="n">
-        <v>-31.2445424639421</v>
+        <v>28.9953459687768</v>
       </c>
       <c r="D8" t="n">
-        <v>-39.2560171886384</v>
+        <v>45.0253860997245</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.4468564133163</v>
+        <v>20.1455964210304</v>
       </c>
       <c r="F8" t="n">
-        <v>-10.8045169940291</v>
+        <v>15.2570600555136</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.85772000298621</v>
+        <v>13.1686193467367</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.79895017593215</v>
+        <v>12.0053196626977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.30184533104388</v>
+        <v>1.30906474785289</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.39508185050483</v>
+        <v>7.241229829367</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.3598659869457</v>
+        <v>37.396501034878</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.252404252015</v>
+        <v>56.7584233024653</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.323590202681</v>
+        <v>25.0015948064804</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.02415577236067</v>
+        <v>18.7238255492718</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.51042805746852</v>
+        <v>16.0285119068162</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.24852986945217</v>
+        <v>14.5230289388962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.179473891108306</v>
+        <v>1.62598114834008</v>
       </c>
       <c r="B10" t="n">
-        <v>2.37779824951968</v>
+        <v>7.57278406506366</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2237315842841</v>
+        <v>37.6624679200986</v>
       </c>
       <c r="D10" t="n">
-        <v>22.8361805843943</v>
+        <v>55.8307093188055</v>
       </c>
       <c r="E10" t="n">
-        <v>10.245847417081</v>
+        <v>24.2077549184735</v>
       </c>
       <c r="F10" t="n">
-        <v>7.70765393786692</v>
+        <v>17.939145145784</v>
       </c>
       <c r="G10" t="n">
-        <v>6.59739827889894</v>
+        <v>15.2485487646588</v>
       </c>
       <c r="H10" t="n">
-        <v>5.96919444346615</v>
+        <v>13.7499387836959</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>3.56844686618705</v>
@@ -490,39 +502,45 @@
         <v>7.37955189331122</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00504153922234707</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00504153922234707</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.579166666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>3.4305203149603</v>
@@ -537,39 +555,45 @@
         <v>7.55722213357446</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00504238338589869</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00504238338589869</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.575</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>3.32269149234563</v>
@@ -584,39 +608,45 @@
         <v>7.53084952823546</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00501539566855981</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00501539566855981</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>3.39607195951702</v>
@@ -631,39 +661,45 @@
         <v>7.29252084187508</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00494395236573061</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00494395236573061</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>3.35253332141703</v>
@@ -678,39 +714,45 @@
         <v>7.45921204490609</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00493732695489603</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00493732695489603</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>3.24664896216301</v>
@@ -725,39 +767,45 @@
         <v>7.46467666911482</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00492875041300587</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00492875041300587</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>3.17343828790293</v>
@@ -772,39 +820,45 @@
         <v>6.96196530457439</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00459849437060557</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00459849437060557</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>3.12955904626817</v>
@@ -819,39 +873,45 @@
         <v>6.96916876823419</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00459772430579692</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00459772430579692</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>3.11487294258644</v>
@@ -866,39 +926,45 @@
         <v>6.95062277580071</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00458668493477701</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00458668493477701</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>3.0054308168185</v>
@@ -913,33 +979,39 @@
         <v>6.39984246541624</v>
       </c>
       <c r="F11" t="n">
+        <v>0.0044777691036851</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0044777691036851</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5375</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>0.979709427894985</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000563770118661967</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000563770118661967</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>1.15737966815822</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000564614282213593</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000564614282213593</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>1.13100706281922</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000537626564874705</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000537626564874705</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>0.892678376458848</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000466183262045512</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000466183262045512</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.025</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>1.05936957948986</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000459557851210933</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000459557851210933</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.025</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>1.06483420369858</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000450981309320773</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000450981309320773</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.025</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>0.562122839158151</v>
       </c>
       <c r="E8" t="n">
+        <v>0.000120725266920469</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000120725266920469</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.025</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>0.569326302817952</v>
       </c>
       <c r="E9" t="n">
+        <v>0.000119955202111815</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000119955202111815</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>0.550780310384476</v>
       </c>
       <c r="E10" t="n">
+        <v>0.000108915831091909</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000108915831091909</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>0.153083366221776</v>
       </c>
       <c r="E2" t="n">
+        <v>0.125904240617945</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.125904240617945</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0775193798449614</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>0.180845024609984</v>
       </c>
       <c r="E3" t="n">
+        <v>0.126092763860675</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.126092763860675</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0697674418604651</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>0.176724203592668</v>
       </c>
       <c r="E4" t="n">
+        <v>0.120065718536548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.120065718536548</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.062015503875969</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>0.139484429700066</v>
       </c>
       <c r="E5" t="n">
+        <v>0.104110607592932</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.104110607592932</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0465116279069768</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>0.165530571293673</v>
       </c>
       <c r="E6" t="n">
+        <v>0.102630984441053</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.102630984441053</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0465116279069768</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>0.166384439844071</v>
       </c>
       <c r="E7" t="n">
+        <v>0.100715623981064</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.100715623981064</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0465116279069768</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>0.0878338556293809</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0269610299515253</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0269610299515253</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0465116279069768</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0.0889594245318543</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0267890548472217</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0267890548472217</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0.0860615418833835</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0243236818535984</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0243236818535984</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.44430867224269</v>
+        <v>1.50496354604047</v>
       </c>
       <c r="B2" t="n">
-        <v>9.9208698047376</v>
+        <v>6.10829048339656</v>
       </c>
       <c r="C2" t="n">
-        <v>58.7109129286015</v>
+        <v>36.1483738595223</v>
       </c>
       <c r="D2" t="n">
-        <v>94.9941870244221</v>
+        <v>58.48802574772</v>
       </c>
       <c r="E2" t="n">
-        <v>42.9369234067336</v>
+        <v>26.4363111091765</v>
       </c>
       <c r="F2" t="n">
-        <v>32.5444039615743</v>
+        <v>20.0376254218523</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0436965129009</v>
+        <v>17.2665348805618</v>
       </c>
       <c r="H2" t="n">
-        <v>25.5147501621558</v>
+        <v>15.7094598224958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.51118328529077</v>
+        <v>1.94274650041483</v>
       </c>
       <c r="B3" t="n">
-        <v>12.7406143186487</v>
+        <v>7.04941379288892</v>
       </c>
       <c r="C3" t="n">
-        <v>71.0086860336026</v>
+        <v>39.2892837206056</v>
       </c>
       <c r="D3" t="n">
-        <v>111.700553867338</v>
+        <v>61.8041960467461</v>
       </c>
       <c r="E3" t="n">
-        <v>49.7500058477755</v>
+        <v>27.5268027622715</v>
       </c>
       <c r="F3" t="n">
-        <v>37.3907996438191</v>
+        <v>20.6884230339249</v>
       </c>
       <c r="G3" t="n">
-        <v>32.0508393320061</v>
+        <v>17.733809627217</v>
       </c>
       <c r="H3" t="n">
-        <v>29.0584442067791</v>
+        <v>16.0781099143176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.61482644299362</v>
+        <v>2.38361782739241</v>
       </c>
       <c r="B4" t="n">
-        <v>15.3343841406085</v>
+        <v>7.92040867866901</v>
       </c>
       <c r="C4" t="n">
-        <v>81.9966772547666</v>
+        <v>42.3523493474257</v>
       </c>
       <c r="D4" t="n">
-        <v>126.463296374993</v>
+        <v>65.3199359659344</v>
       </c>
       <c r="E4" t="n">
-        <v>55.7433718312788</v>
+        <v>28.7921759349648</v>
       </c>
       <c r="F4" t="n">
-        <v>41.6494139617491</v>
+        <v>21.512463544625</v>
       </c>
       <c r="G4" t="n">
-        <v>35.57362835601</v>
+        <v>18.3742413245366</v>
       </c>
       <c r="H4" t="n">
-        <v>32.1775533566187</v>
+        <v>16.6201244554178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.34312510148903</v>
+        <v>1.49354800977541</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1580618717944</v>
+        <v>4.98488707292074</v>
       </c>
       <c r="C5" t="n">
-        <v>68.9771920979568</v>
+        <v>30.8157023295103</v>
       </c>
       <c r="D5" t="n">
-        <v>113.493838941943</v>
+        <v>50.7036057962688</v>
       </c>
       <c r="E5" t="n">
-        <v>51.5040979771153</v>
+        <v>23.0095616208728</v>
       </c>
       <c r="F5" t="n">
-        <v>39.0503174713885</v>
+        <v>17.4458095853227</v>
       </c>
       <c r="G5" t="n">
-        <v>33.6282889085181</v>
+        <v>15.0235071816784</v>
       </c>
       <c r="H5" t="n">
-        <v>30.5714506668238</v>
+        <v>13.657858414884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.17961777447463</v>
+        <v>1.89417287360628</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0964441496287</v>
+        <v>5.93521479414335</v>
       </c>
       <c r="C6" t="n">
-        <v>75.4696090358696</v>
+        <v>34.2022868910266</v>
       </c>
       <c r="D6" t="n">
-        <v>120.445221102794</v>
+        <v>54.5849125156188</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8770436277254</v>
+        <v>24.4166907254019</v>
       </c>
       <c r="F6" t="n">
-        <v>40.5484173812893</v>
+        <v>18.3762526660606</v>
       </c>
       <c r="G6" t="n">
-        <v>34.775322665647</v>
+        <v>15.7599274427562</v>
       </c>
       <c r="H6" t="n">
-        <v>31.5360836760292</v>
+        <v>14.2919275067972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.80185007740966</v>
+        <v>2.21754932588769</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1545303434795</v>
+        <v>6.53672411996091</v>
       </c>
       <c r="C7" t="n">
-        <v>78.0596631687147</v>
+        <v>36.0488458923695</v>
       </c>
       <c r="D7" t="n">
-        <v>122.278076974285</v>
+        <v>56.4694154948386</v>
       </c>
       <c r="E7" t="n">
-        <v>54.2346755479895</v>
+        <v>25.0461939174202</v>
       </c>
       <c r="F7" t="n">
-        <v>40.6459606798637</v>
+        <v>18.7707698600853</v>
       </c>
       <c r="G7" t="n">
-        <v>34.7780784930197</v>
+        <v>16.0609147046649</v>
       </c>
       <c r="H7" t="n">
-        <v>31.4937201773877</v>
+        <v>14.5441604429966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.733911987837223</v>
+        <v>1.26610301446675</v>
       </c>
       <c r="B8" t="n">
-        <v>5.39616851847802</v>
+        <v>9.30916150851991</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9953459687768</v>
+        <v>50.0211136280239</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0253860997245</v>
+        <v>77.6752226603965</v>
       </c>
       <c r="E8" t="n">
-        <v>20.1455964210304</v>
+        <v>34.7540315182239</v>
       </c>
       <c r="F8" t="n">
-        <v>15.2570600555136</v>
+        <v>26.3206079861316</v>
       </c>
       <c r="G8" t="n">
-        <v>13.1686193467367</v>
+        <v>22.7177494407769</v>
       </c>
       <c r="H8" t="n">
-        <v>12.0053196626977</v>
+        <v>20.7108913145997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.30906474785289</v>
+        <v>1.89401768761881</v>
       </c>
       <c r="B9" t="n">
-        <v>7.241229829367</v>
+        <v>10.4769587596253</v>
       </c>
       <c r="C9" t="n">
-        <v>37.396501034878</v>
+        <v>54.1070520241936</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7584233024653</v>
+        <v>82.1208101681353</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0015948064804</v>
+        <v>36.1735069711571</v>
       </c>
       <c r="F9" t="n">
-        <v>18.7238255492718</v>
+        <v>27.0905291952718</v>
       </c>
       <c r="G9" t="n">
-        <v>16.0285119068162</v>
+        <v>23.1908200931329</v>
       </c>
       <c r="H9" t="n">
-        <v>14.5230289388962</v>
+        <v>21.0126151003498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.62598114834008</v>
+        <v>2.5909944682218</v>
       </c>
       <c r="B10" t="n">
-        <v>7.57278406506366</v>
+        <v>12.0672011736721</v>
       </c>
       <c r="C10" t="n">
-        <v>37.6624679200986</v>
+        <v>60.0149922649329</v>
       </c>
       <c r="D10" t="n">
-        <v>55.8307093188055</v>
+        <v>88.9660123978688</v>
       </c>
       <c r="E10" t="n">
-        <v>24.2077549184735</v>
+        <v>38.5749608141922</v>
       </c>
       <c r="F10" t="n">
-        <v>17.939145145784</v>
+        <v>28.5859561685599</v>
       </c>
       <c r="G10" t="n">
-        <v>15.2485487646588</v>
+        <v>24.2985015773246</v>
       </c>
       <c r="H10" t="n">
-        <v>13.7499387836959</v>
+        <v>21.9104725557944</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>1.50496354604047</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.10829048339656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36.1483738595223</v>
+      </c>
+      <c r="D2" t="n">
+        <v>58.48802574772</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26.4363111091765</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20.0376254218523</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.2665348805618</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.7094598224958</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>1.94274650041483</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.04941379288892</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.2892837206056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.8041960467461</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.5268027622715</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.6884230339249</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.733809627217</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.0781099143176</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>2.38361782739241</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.92040867866901</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.3523493474257</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.3199359659344</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.7921759349648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.512463544625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.3742413245366</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.6201244554178</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>1.49354800977541</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.98488707292074</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30.8157023295103</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.7036057962688</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23.0095616208728</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.4458095853227</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.0235071816784</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.657858414884</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>1.89417287360628</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.93521479414335</v>
+      </c>
+      <c r="C6" t="n">
+        <v>34.2022868910266</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.5849125156188</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.4166907254019</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.3762526660606</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.7599274427562</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.2919275067972</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>2.21754932588769</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.53672411996091</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36.0488458923695</v>
+      </c>
+      <c r="D7" t="n">
+        <v>56.4694154948386</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25.0461939174202</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.7707698600853</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.0609147046649</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.5441604429966</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>1.26610301446675</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.30916150851991</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50.0211136280239</v>
+      </c>
+      <c r="D8" t="n">
+        <v>77.6752226603965</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.7540315182239</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26.3206079861316</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22.7177494407769</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.7108913145997</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>1.89401768761881</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.4769587596253</v>
+      </c>
+      <c r="C9" t="n">
+        <v>54.1070520241936</v>
+      </c>
+      <c r="D9" t="n">
+        <v>82.1208101681353</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36.1735069711571</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27.0905291952718</v>
+      </c>
+      <c r="G9" t="n">
+        <v>23.1908200931329</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21.0126151003498</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>2.5909944682218</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12.0672011736721</v>
+      </c>
+      <c r="C10" t="n">
+        <v>60.0149922649329</v>
+      </c>
+      <c r="D10" t="n">
+        <v>88.9660123978688</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.5749608141922</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.5859561685599</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24.2985015773246</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.9104725557944</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.44430867224269</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.9208698047376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.7109129286015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.9941870244221</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.9369234067336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.5444039615743</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.0436965129009</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.5147501621558</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.51118328529077</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.7406143186487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71.0086860336026</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111.700553867338</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49.7500058477755</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37.3907996438191</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32.0508393320061</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29.0584442067791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.61482644299362</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.3343841406085</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81.9966772547666</v>
+      </c>
+      <c r="D4" t="n">
+        <v>126.463296374993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.7433718312788</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41.6494139617491</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35.57362835601</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.1775533566187</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.34312510148903</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.1580618717944</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.9771920979568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>113.493838941943</v>
+      </c>
+      <c r="E5" t="n">
+        <v>51.5040979771153</v>
+      </c>
+      <c r="F5" t="n">
+        <v>39.0503174713885</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.6282889085181</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30.5714506668238</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.17961777447463</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.0964441496287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>75.4696090358696</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.445221102794</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53.8770436277254</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40.5484173812893</v>
+      </c>
+      <c r="G6" t="n">
+        <v>34.775322665647</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31.5360836760292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.80185007740966</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.1545303434795</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78.0596631687147</v>
+      </c>
+      <c r="D7" t="n">
+        <v>122.278076974285</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54.2346755479895</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40.6459606798637</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.7780784930197</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31.4937201773877</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.733911987837223</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.39616851847802</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28.9953459687768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.0253860997245</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.1455964210304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.2570600555136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.1686193467367</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.0053196626977</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.30906474785289</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.241229829367</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37.396501034878</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.7584233024653</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.0015948064804</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.7238255492718</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.0285119068162</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.5230289388962</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.62598114834008</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.57278406506366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37.6624679200986</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55.8307093188055</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.2077549184735</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.939145145784</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.2485487646588</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.7499387836959</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_11.xlsx
@@ -504,7 +504,7 @@
         <v>7.37955189331122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00504153922234707</v>
+        <v>1.35896169248673</v>
       </c>
       <c r="G2" t="n">
         <v>0.00504153922234707</v>
@@ -557,7 +557,7 @@
         <v>7.55722213357446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00504238338589869</v>
+        <v>1.32970483365722</v>
       </c>
       <c r="G3" t="n">
         <v>0.00504238338589869</v>
@@ -610,7 +610,7 @@
         <v>7.53084952823546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00501539566855981</v>
+        <v>1.29713044600845</v>
       </c>
       <c r="G4" t="n">
         <v>0.00501539566855981</v>
@@ -663,7 +663,7 @@
         <v>7.29252084187508</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00494395236573061</v>
+        <v>1.30800321745346</v>
       </c>
       <c r="G5" t="n">
         <v>0.00494395236573061</v>
@@ -716,7 +716,7 @@
         <v>7.45921204490609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00493732695489603</v>
+        <v>1.30320841754809</v>
       </c>
       <c r="G6" t="n">
         <v>0.00493732695489603</v>
@@ -769,7 +769,7 @@
         <v>7.46467666911482</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00492875041300587</v>
+        <v>1.29709488157577</v>
       </c>
       <c r="G7" t="n">
         <v>0.00492875041300587</v>
@@ -822,7 +822,7 @@
         <v>6.96196530457439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00459849437060557</v>
+        <v>1.28220508141085</v>
       </c>
       <c r="G8" t="n">
         <v>0.00459849437060557</v>
@@ -875,7 +875,7 @@
         <v>6.96916876823419</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00459772430579692</v>
+        <v>1.2748473910868</v>
       </c>
       <c r="G9" t="n">
         <v>0.00459772430579692</v>
@@ -928,7 +928,7 @@
         <v>6.95062277580071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00458668493477701</v>
+        <v>1.25897571336494</v>
       </c>
       <c r="G10" t="n">
         <v>0.00458668493477701</v>
@@ -981,7 +981,7 @@
         <v>6.39984246541624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0044777691036851</v>
+        <v>1.22759201719009</v>
       </c>
       <c r="G11" t="n">
         <v>0.0044777691036851</v>
@@ -1695,7 +1695,7 @@
         <v>0.979709427894985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000563770118661967</v>
+        <v>0.131369675296644</v>
       </c>
       <c r="F2" t="n">
         <v>0.000563770118661967</v>
@@ -1745,7 +1745,7 @@
         <v>1.15737966815822</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000564614282213593</v>
+        <v>0.102112816467129</v>
       </c>
       <c r="F3" t="n">
         <v>0.000564614282213593</v>
@@ -1795,7 +1795,7 @@
         <v>1.13100706281922</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000537626564874705</v>
+        <v>0.0695384288183605</v>
       </c>
       <c r="F4" t="n">
         <v>0.000537626564874705</v>
@@ -1845,7 +1845,7 @@
         <v>0.892678376458848</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000466183262045512</v>
+        <v>0.0804112002633766</v>
       </c>
       <c r="F5" t="n">
         <v>0.000466183262045512</v>
@@ -1895,7 +1895,7 @@
         <v>1.05936957948986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000459557851210933</v>
+        <v>0.0756164003580009</v>
       </c>
       <c r="F6" t="n">
         <v>0.000459557851210933</v>
@@ -1945,7 +1945,7 @@
         <v>1.06483420369858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000450981309320773</v>
+        <v>0.0695028643856801</v>
       </c>
       <c r="F7" t="n">
         <v>0.000450981309320773</v>
@@ -1995,7 +1995,7 @@
         <v>0.562122839158151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000120725266920469</v>
+        <v>0.054613064220765</v>
       </c>
       <c r="F8" t="n">
         <v>0.000120725266920469</v>
@@ -2045,7 +2045,7 @@
         <v>0.569326302817952</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000119955202111815</v>
+        <v>0.0472553738967154</v>
       </c>
       <c r="F9" t="n">
         <v>0.000119955202111815</v>
@@ -2095,7 +2095,7 @@
         <v>0.550780310384476</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000108915831091909</v>
+        <v>0.0313836961748539</v>
       </c>
       <c r="F10" t="n">
         <v>0.000108915831091909</v>
@@ -2259,7 +2259,7 @@
         <v>0.153083366221776</v>
       </c>
       <c r="E2" t="n">
-        <v>0.125904240617945</v>
+        <v>0.107014116625932</v>
       </c>
       <c r="F2" t="n">
         <v>0.125904240617945</v>
@@ -2309,7 +2309,7 @@
         <v>0.180845024609984</v>
       </c>
       <c r="E3" t="n">
-        <v>0.126092763860675</v>
+        <v>0.0831813949889158</v>
       </c>
       <c r="F3" t="n">
         <v>0.126092763860675</v>
@@ -2359,7 +2359,7 @@
         <v>0.176724203592668</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120065718536548</v>
+        <v>0.0566462048014384</v>
       </c>
       <c r="F4" t="n">
         <v>0.120065718536548</v>
@@ -2409,7 +2409,7 @@
         <v>0.139484429700066</v>
       </c>
       <c r="E5" t="n">
-        <v>0.104110607592932</v>
+        <v>0.0655031957990692</v>
       </c>
       <c r="F5" t="n">
         <v>0.104110607592932</v>
@@ -2459,7 +2459,7 @@
         <v>0.165530571293673</v>
       </c>
       <c r="E6" t="n">
-        <v>0.102630984441053</v>
+        <v>0.0615973379584889</v>
       </c>
       <c r="F6" t="n">
         <v>0.102630984441053</v>
@@ -2509,7 +2509,7 @@
         <v>0.166384439844071</v>
       </c>
       <c r="E7" t="n">
-        <v>0.100715623981064</v>
+        <v>0.0566172339119389</v>
       </c>
       <c r="F7" t="n">
         <v>0.100715623981064</v>
@@ -2559,7 +2559,7 @@
         <v>0.0878338556293809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0269610299515253</v>
+        <v>0.0444879597260434</v>
       </c>
       <c r="F8" t="n">
         <v>0.0269610299515253</v>
@@ -2609,7 +2609,7 @@
         <v>0.0889594245318543</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0267890548472217</v>
+        <v>0.0384943639539798</v>
       </c>
       <c r="F9" t="n">
         <v>0.0267890548472217</v>
@@ -2659,7 +2659,7 @@
         <v>0.0860615418833835</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0243236818535984</v>
+        <v>0.025565249476524</v>
       </c>
       <c r="F10" t="n">
         <v>0.0243236818535984</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.50496354604047</v>
+        <v>1.77061960044249</v>
       </c>
       <c r="B2" t="n">
-        <v>6.10829048339656</v>
+        <v>7.18652547003782</v>
       </c>
       <c r="C2" t="n">
-        <v>36.1483738595223</v>
+        <v>42.5292821531718</v>
       </c>
       <c r="D2" t="n">
-        <v>58.48802574772</v>
+        <v>68.8123277487767</v>
       </c>
       <c r="E2" t="n">
-        <v>26.4363111091765</v>
+        <v>31.1028468008119</v>
       </c>
       <c r="F2" t="n">
-        <v>20.0376254218523</v>
+        <v>23.5746655868184</v>
       </c>
       <c r="G2" t="n">
-        <v>17.2665348805618</v>
+        <v>20.3144223470942</v>
       </c>
       <c r="H2" t="n">
-        <v>15.7094598224958</v>
+        <v>18.4824925143581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.94274650041483</v>
+        <v>2.94496474542899</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04941379288892</v>
+        <v>10.6860442634002</v>
       </c>
       <c r="C3" t="n">
-        <v>39.2892837206056</v>
+        <v>59.5577217128606</v>
       </c>
       <c r="D3" t="n">
-        <v>61.8041960467461</v>
+        <v>93.6875595649686</v>
       </c>
       <c r="E3" t="n">
-        <v>27.5268027622715</v>
+        <v>41.7272473129957</v>
       </c>
       <c r="F3" t="n">
-        <v>20.6884230339249</v>
+        <v>31.3611047351881</v>
       </c>
       <c r="G3" t="n">
-        <v>17.733809627217</v>
+        <v>26.8822742149589</v>
       </c>
       <c r="H3" t="n">
-        <v>16.0781099143176</v>
+        <v>24.372437093922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.38361782739241</v>
+        <v>5.0522499815403</v>
       </c>
       <c r="B4" t="n">
-        <v>7.92040867866901</v>
+        <v>16.7878777129189</v>
       </c>
       <c r="C4" t="n">
-        <v>42.3523493474257</v>
+        <v>89.7688604900224</v>
       </c>
       <c r="D4" t="n">
-        <v>65.3199359659344</v>
+        <v>138.450317616196</v>
       </c>
       <c r="E4" t="n">
-        <v>28.7921759349648</v>
+        <v>61.0270944713752</v>
       </c>
       <c r="F4" t="n">
-        <v>21.512463544625</v>
+        <v>45.5972187727412</v>
       </c>
       <c r="G4" t="n">
-        <v>18.3742413245366</v>
+        <v>38.9455303303639</v>
       </c>
       <c r="H4" t="n">
-        <v>16.6201244554178</v>
+        <v>35.2275530532262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.49354800977541</v>
+        <v>2.37384128926945</v>
       </c>
       <c r="B5" t="n">
-        <v>4.98488707292074</v>
+        <v>7.9229664387047</v>
       </c>
       <c r="C5" t="n">
-        <v>30.8157023295103</v>
+        <v>48.9783964551821</v>
       </c>
       <c r="D5" t="n">
-        <v>50.7036057962688</v>
+        <v>80.5881780607265</v>
       </c>
       <c r="E5" t="n">
-        <v>23.0095616208728</v>
+        <v>36.5713368878119</v>
       </c>
       <c r="F5" t="n">
-        <v>17.4458095853227</v>
+        <v>27.7283239958247</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0235071816784</v>
+        <v>23.8783229089951</v>
       </c>
       <c r="H5" t="n">
-        <v>13.657858414884</v>
+        <v>21.7077643410493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.89417287360628</v>
+        <v>3.15599396277091</v>
       </c>
       <c r="B6" t="n">
-        <v>5.93521479414335</v>
+        <v>9.88901399606808</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2022868910266</v>
+        <v>56.9864622417116</v>
       </c>
       <c r="D6" t="n">
-        <v>54.5849125156188</v>
+        <v>90.9471657830737</v>
       </c>
       <c r="E6" t="n">
-        <v>24.4166907254019</v>
+        <v>40.6820990807992</v>
       </c>
       <c r="F6" t="n">
-        <v>18.3762526660606</v>
+        <v>30.6177663509792</v>
       </c>
       <c r="G6" t="n">
-        <v>15.7599274427562</v>
+        <v>26.2585514533055</v>
       </c>
       <c r="H6" t="n">
-        <v>14.2919275067972</v>
+        <v>23.8126295420631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.21754932588769</v>
+        <v>3.94476820278691</v>
       </c>
       <c r="B7" t="n">
-        <v>6.53672411996091</v>
+        <v>11.6280892414828</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0488458923695</v>
+        <v>64.1267995093909</v>
       </c>
       <c r="D7" t="n">
-        <v>56.4694154948386</v>
+        <v>100.452671818171</v>
       </c>
       <c r="E7" t="n">
-        <v>25.0461939174202</v>
+        <v>44.5543322138838</v>
       </c>
       <c r="F7" t="n">
-        <v>18.7707698600853</v>
+        <v>33.391066084293</v>
       </c>
       <c r="G7" t="n">
-        <v>16.0609147046649</v>
+        <v>28.5705417665391</v>
       </c>
       <c r="H7" t="n">
-        <v>14.5441604429966</v>
+        <v>25.8724083302172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.26610301446675</v>
+        <v>0.767296174177472</v>
       </c>
       <c r="B8" t="n">
-        <v>9.30916150851991</v>
+        <v>5.64162941614661</v>
       </c>
       <c r="C8" t="n">
-        <v>50.0211136280239</v>
+        <v>30.314286180769</v>
       </c>
       <c r="D8" t="n">
-        <v>77.6752226603965</v>
+        <v>47.0735007299603</v>
       </c>
       <c r="E8" t="n">
-        <v>34.7540315182239</v>
+        <v>21.0619792516707</v>
       </c>
       <c r="F8" t="n">
-        <v>26.3206079861316</v>
+        <v>15.9510731583635</v>
       </c>
       <c r="G8" t="n">
-        <v>22.7177494407769</v>
+        <v>13.7676334647794</v>
       </c>
       <c r="H8" t="n">
-        <v>20.7108913145997</v>
+        <v>12.5514176081405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.89401768761881</v>
+        <v>1.31808759785944</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4769587596253</v>
+        <v>7.2911406765734</v>
       </c>
       <c r="C9" t="n">
-        <v>54.1070520241936</v>
+        <v>37.6542598815363</v>
       </c>
       <c r="D9" t="n">
-        <v>82.1208101681353</v>
+        <v>57.1496359914531</v>
       </c>
       <c r="E9" t="n">
-        <v>36.1735069711571</v>
+        <v>25.173920614072</v>
       </c>
       <c r="F9" t="n">
-        <v>27.0905291952718</v>
+        <v>18.8528812508763</v>
       </c>
       <c r="G9" t="n">
-        <v>23.1908200931329</v>
+        <v>16.1389899095282</v>
       </c>
       <c r="H9" t="n">
-        <v>21.0126151003498</v>
+        <v>14.6231302608296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.5909944682218</v>
+        <v>2.4651637054171</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0672011736721</v>
+        <v>11.48116166366</v>
       </c>
       <c r="C10" t="n">
-        <v>60.0149922649329</v>
+        <v>57.100384631055</v>
       </c>
       <c r="D10" t="n">
-        <v>88.9660123978688</v>
+        <v>84.6454083437045</v>
       </c>
       <c r="E10" t="n">
-        <v>38.5749608141922</v>
+        <v>36.7015809965416</v>
       </c>
       <c r="F10" t="n">
-        <v>28.5859561685599</v>
+        <v>27.1976889552145</v>
       </c>
       <c r="G10" t="n">
-        <v>24.2985015773246</v>
+        <v>23.1184531341551</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9104725557944</v>
+        <v>20.8463979277235</v>
       </c>
     </row>
     <row r="11">
